--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T15:17:50+00:00</t>
+    <t>2025-09-26T08:52:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:52:04+00:00</t>
+    <t>2025-09-26T11:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T11:13:08+00:00</t>
+    <t>2025-09-26T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T13:47:48+00:00</t>
+    <t>2025-09-29T08:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:20:50+00:00</t>
+    <t>2025-09-29T14:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:52:40+00:00</t>
+    <t>2025-09-29T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T15:54:50+00:00</t>
+    <t>2025-10-01T07:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:41:07+00:00</t>
+    <t>2025-10-01T07:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:57:22+00:00</t>
+    <t>2025-10-01T09:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T09:25:52+00:00</t>
+    <t>2025-10-01T13:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:14:57+00:00</t>
+    <t>2025-10-01T16:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:07:51+00:00</t>
+    <t>2025-10-03T13:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T13:32:59+00:00</t>
+    <t>2025-10-03T14:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T14:19:43+00:00</t>
+    <t>2025-10-06T09:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T09:55:58+00:00</t>
+    <t>2025-10-06T14:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:50:01+00:00</t>
+    <t>2025-10-07T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:55:00+00:00</t>
+    <t>2025-10-07T14:18:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:18:23+00:00</t>
+    <t>2025-10-07T16:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:19:46+00:00</t>
+    <t>2025-10-08T12:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:42:57+00:00</t>
+    <t>2025-10-08T15:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T15:14:16+00:00</t>
+    <t>2025-10-13T13:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:31:44+00:00</t>
+    <t>2025-10-15T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:45:31+00:00</t>
+    <t>2025-10-15T11:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:51:21+00:00</t>
+    <t>2025-10-15T15:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:22+00:00</t>
+    <t>2025-10-16T14:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
